--- a/RawData/kinetic_interpretation_of_hot_water_pretreatment_of_hardwood.xlsx
+++ b/RawData/kinetic_interpretation_of_hot_water_pretreatment_of_hardwood.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D097BB4-E4F0-3E4E-817D-2C95AF3F67C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAEB86C-053B-0148-9423-DE4A6D93D0EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,19 +188,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1666,7 +1668,7 @@
   <dimension ref="A1:Y988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+      <selection activeCell="AA40" sqref="AA40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1679,36 +1681,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="6" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="6" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -1788,7 +1790,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>40.260776518121503</v>
       </c>
       <c r="B3">
@@ -1804,13 +1806,13 @@
         <v>5</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F35" si="0">3000/8</f>
+        <f t="shared" ref="F3:F45" si="0">3000/8</f>
         <v>375</v>
       </c>
       <c r="G3" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>A3-I3</f>
         <v>20.260776518121503</v>
       </c>
@@ -1825,9 +1827,9 @@
         <f>15.7/0.88</f>
         <v>17.84090909090909</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="T3">
         <v>0.22529190336713029</v>
       </c>
@@ -1836,7 +1838,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>59.975831818978499</v>
       </c>
       <c r="B4" s="4">
@@ -1858,7 +1860,7 @@
       <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:H34" si="1">A4-I4</f>
         <v>39.975831818978499</v>
       </c>
@@ -1866,16 +1868,16 @@
         <v>20</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J3:J34" si="2">(B4-25)/I4</f>
+        <f t="shared" ref="J4:J34" si="2">(B4-25)/I4</f>
         <v>6</v>
       </c>
       <c r="N4" s="4">
-        <f t="shared" ref="N4:N35" si="3">15.7/0.88</f>
+        <f t="shared" ref="N4:N45" si="3">15.7/0.88</f>
         <v>17.84090909090909</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="T4" s="4">
         <v>0.43637156342534134</v>
       </c>
@@ -1885,7 +1887,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>79.689503445349501</v>
       </c>
       <c r="B5" s="4">
@@ -1907,7 +1909,7 @@
       <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
         <v>59.689503445349501</v>
       </c>
@@ -1922,9 +1924,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
       <c r="T5" s="4">
         <v>1.0865455969477613</v>
       </c>
@@ -1934,7 +1936,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>99.403175071720497</v>
       </c>
       <c r="B6" s="4">
@@ -1956,7 +1958,7 @@
       <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
         <v>79.403175071720497</v>
       </c>
@@ -1971,9 +1973,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="T6" s="4">
         <v>1.9229639625981532</v>
       </c>
@@ -1983,7 +1985,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>119.818830887304</v>
       </c>
       <c r="B7" s="4">
@@ -2005,7 +2007,7 @@
       <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>99.818830887304003</v>
       </c>
@@ -2020,9 +2022,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="T7" s="4">
         <v>2.9323426477626899</v>
       </c>
@@ -2032,7 +2034,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>139.76911085077501</v>
       </c>
       <c r="B8" s="4">
@@ -2054,7 +2056,7 @@
       <c r="G8" s="4">
         <v>10</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
         <v>119.76911085077501</v>
       </c>
@@ -2069,9 +2071,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="T8" s="4">
         <v>3.5824960539363264</v>
       </c>
@@ -2081,7 +2083,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>160.189840139474</v>
       </c>
       <c r="B9" s="4">
@@ -2103,7 +2105,7 @@
       <c r="G9" s="4">
         <v>10</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
         <v>140.189840139474</v>
       </c>
@@ -2118,9 +2120,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="T9" s="4">
         <v>4.7249211387271135</v>
       </c>
@@ -2130,7 +2132,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>179.90028319204501</v>
       </c>
       <c r="B10" s="4">
@@ -2152,7 +2154,7 @@
       <c r="G10" s="4">
         <v>10</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
         <v>159.90028319204501</v>
       </c>
@@ -2169,9 +2171,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="T10" s="4">
         <v>4.8694982263209923</v>
       </c>
@@ -2181,7 +2183,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>199.83534273616999</v>
       </c>
       <c r="B11" s="4">
@@ -2203,7 +2205,7 @@
       <c r="G11" s="4">
         <v>10</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
         <v>179.83534273616999</v>
       </c>
@@ -2220,9 +2222,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="T11" s="4">
         <v>7.1029037880470733</v>
       </c>
@@ -2232,7 +2234,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>220.01300654016799</v>
       </c>
       <c r="B12" s="4">
@@ -2254,7 +2256,7 @@
       <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
         <v>200.01300654016799</v>
       </c>
@@ -2271,9 +2273,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="T12" s="4">
         <v>5.6376194401632329</v>
       </c>
@@ -2283,7 +2285,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>239.97666202367</v>
       </c>
       <c r="B13" s="4">
@@ -2305,7 +2307,7 @@
       <c r="G13" s="4">
         <v>10</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
         <v>219.97666202367</v>
       </c>
@@ -2322,9 +2324,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="T13" s="4">
         <v>5.5693222883550986</v>
       </c>
@@ -2334,7 +2336,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>39.784331270120902</v>
       </c>
       <c r="B14" s="4">
@@ -2356,7 +2358,7 @@
       <c r="G14" s="4">
         <v>10</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
         <v>19.784331270120902</v>
       </c>
@@ -2373,9 +2375,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="T14" s="4">
         <v>1.5424512596670663</v>
       </c>
@@ -2385,7 +2387,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>59.7313826597914</v>
       </c>
       <c r="B15" s="4">
@@ -2407,7 +2409,7 @@
       <c r="G15" s="4">
         <v>10</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
         <v>39.7313826597914</v>
       </c>
@@ -2424,9 +2426,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="T15" s="4">
         <v>3.1372134758383505</v>
       </c>
@@ -2436,7 +2438,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>80.143348676746001</v>
       </c>
       <c r="B16" s="4">
@@ -2458,7 +2460,7 @@
       <c r="G16" s="4">
         <v>10</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="7">
         <f t="shared" si="1"/>
         <v>60.143348676746001</v>
       </c>
@@ -2475,9 +2477,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="T16" s="4">
         <v>4.6521891069314334</v>
       </c>
@@ -2487,7 +2489,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>100.090400066416</v>
       </c>
       <c r="B17" s="4">
@@ -2509,7 +2511,7 @@
       <c r="G17" s="4">
         <v>10</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="1"/>
         <v>80.090400066415995</v>
       </c>
@@ -2526,9 +2528,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="T17" s="4">
         <v>5.5285420198184925</v>
       </c>
@@ -2538,7 +2540,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>119.729353270545</v>
       </c>
       <c r="B18" s="4">
@@ -2560,7 +2562,7 @@
       <c r="G18" s="4">
         <v>10</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <f t="shared" si="1"/>
         <v>99.729353270545005</v>
       </c>
@@ -2577,9 +2579,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
       <c r="T18" s="4">
         <v>6.4048330506592039</v>
       </c>
@@ -2589,7 +2591,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>139.42411467894101</v>
       </c>
       <c r="B19" s="4">
@@ -2611,7 +2613,7 @@
       <c r="G19" s="4">
         <v>10</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f t="shared" si="1"/>
         <v>119.42411467894101</v>
       </c>
@@ -2628,9 +2630,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="T19" s="4">
         <v>6.9884838843684873</v>
       </c>
@@ -2640,7 +2642,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>159.84807254144101</v>
       </c>
       <c r="B20" s="4">
@@ -2662,7 +2664,7 @@
       <c r="G20" s="4">
         <v>10</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="7">
         <f t="shared" si="1"/>
         <v>139.84807254144101</v>
       </c>
@@ -2679,9 +2681,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
       <c r="T20" s="4">
         <v>6.4678289738310832</v>
       </c>
@@ -2691,7 +2693,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>180.258193659081</v>
       </c>
       <c r="B21" s="4">
@@ -2713,7 +2715,7 @@
       <c r="G21" s="4">
         <v>10</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="7">
         <f t="shared" si="1"/>
         <v>160.258193659081</v>
       </c>
@@ -2730,9 +2732,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
       <c r="T21" s="4">
         <v>4.8827822389348263</v>
       </c>
@@ -2742,7 +2744,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>200.17295931074599</v>
       </c>
       <c r="B22" s="4">
@@ -2764,7 +2766,7 @@
       <c r="G22" s="4">
         <v>10</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="7">
         <f t="shared" si="1"/>
         <v>180.17295931074599</v>
       </c>
@@ -2781,9 +2783,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
       <c r="T22" s="4">
         <v>3.8033324499671304</v>
       </c>
@@ -2793,7 +2795,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>220.131080096304</v>
       </c>
       <c r="B23" s="4">
@@ -2815,7 +2817,7 @@
       <c r="G23" s="4">
         <v>10</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="7">
         <f t="shared" si="1"/>
         <v>200.131080096304</v>
       </c>
@@ -2830,9 +2832,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
       <c r="T23" s="4">
         <v>4.2272863494273594</v>
       </c>
@@ -2842,7 +2844,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>240.06660086525801</v>
       </c>
       <c r="B24" s="4">
@@ -2864,7 +2866,7 @@
       <c r="G24" s="4">
         <v>10</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="7">
         <f t="shared" si="1"/>
         <v>220.06660086525801</v>
       </c>
@@ -2879,9 +2881,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="T24" s="4">
         <v>5.8221104476449774</v>
       </c>
@@ -2891,7 +2893,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>39.784331270120902</v>
       </c>
       <c r="B25" s="4">
@@ -2913,7 +2915,7 @@
       <c r="G25" s="4">
         <v>10</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="7">
         <f t="shared" si="1"/>
         <v>19.784331270120902</v>
       </c>
@@ -2928,9 +2930,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="T25" s="4">
         <v>2.0347229382842174</v>
       </c>
@@ -2940,7 +2942,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>59.9052644201943</v>
       </c>
       <c r="B26" s="4">
@@ -2962,7 +2964,7 @@
       <c r="G26" s="4">
         <v>10</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="7">
         <f t="shared" si="1"/>
         <v>39.9052644201943</v>
       </c>
@@ -2977,9 +2979,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="T26" s="4">
         <v>4.840207391054423</v>
       </c>
@@ -2989,7 +2991,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>79.817262722886895</v>
       </c>
       <c r="B27" s="4">
@@ -3011,7 +3013,7 @@
       <c r="G27" s="4">
         <v>10</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <f t="shared" si="1"/>
         <v>59.817262722886895</v>
       </c>
@@ -3026,9 +3028,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="T27" s="4">
         <v>6.0092623831192435</v>
       </c>
@@ -3038,7 +3040,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>99.754167166326894</v>
       </c>
       <c r="B28" s="4">
@@ -3060,7 +3062,7 @@
       <c r="G28" s="4">
         <v>10</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="7">
         <f t="shared" si="1"/>
         <v>79.754167166326894</v>
       </c>
@@ -3075,9 +3077,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="T28" s="4">
         <v>7.5108921195521434</v>
       </c>
@@ -3087,7 +3089,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>119.928141171696</v>
       </c>
       <c r="B29" s="4">
@@ -3109,7 +3111,7 @@
       <c r="G29" s="4">
         <v>10</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="7">
         <f t="shared" si="1"/>
         <v>99.928141171695998</v>
       </c>
@@ -3124,9 +3126,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
       <c r="T29" s="4">
         <v>7.2031114484167365</v>
       </c>
@@ -3136,7 +3138,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>139.891335430369</v>
       </c>
       <c r="B30" s="4">
@@ -3158,7 +3160,7 @@
       <c r="G30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <f t="shared" si="1"/>
         <v>119.891335430369</v>
       </c>
@@ -3173,9 +3175,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
       <c r="T30" s="4">
         <v>6.6292379780288293</v>
       </c>
@@ -3185,7 +3187,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>159.80010515926099</v>
       </c>
       <c r="B31" s="4">
@@ -3207,7 +3209,7 @@
       <c r="G31" s="4">
         <v>10</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <f t="shared" si="1"/>
         <v>139.80010515926099</v>
       </c>
@@ -3222,9 +3224,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
       <c r="T31" s="4">
         <v>6.1218877074540323</v>
       </c>
@@ -3234,7 +3236,7 @@
       </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>180.05294861032999</v>
       </c>
       <c r="B32" s="4">
@@ -3256,7 +3258,7 @@
       <c r="G32" s="4">
         <v>10</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <f t="shared" si="1"/>
         <v>160.05294861032999</v>
       </c>
@@ -3271,9 +3273,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
       <c r="T32" s="4">
         <v>5.0956564783368394</v>
       </c>
@@ -3283,7 +3285,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>200.22184914258301</v>
       </c>
       <c r="B33" s="4">
@@ -3305,7 +3307,7 @@
       <c r="G33" s="4">
         <v>10</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <f t="shared" si="1"/>
         <v>180.22184914258301</v>
       </c>
@@ -3320,9 +3322,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
       <c r="T33" s="4">
         <v>4.4818897154098236</v>
       </c>
@@ -3332,7 +3334,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>219.96319425867301</v>
       </c>
       <c r="B34" s="4">
@@ -3354,7 +3356,7 @@
       <c r="G34" s="4">
         <v>10</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <f t="shared" si="1"/>
         <v>199.96319425867301</v>
       </c>
@@ -3369,9 +3371,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
       <c r="T34" s="4">
         <v>5.6642287200884915</v>
       </c>
@@ -3381,7 +3383,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <v>240.15331113304501</v>
       </c>
       <c r="B35" s="4">
@@ -3403,7 +3405,7 @@
       <c r="G35" s="4">
         <v>10</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <f t="shared" ref="H35" si="4">A35-I35</f>
         <v>219.15331113304501</v>
       </c>
@@ -3418,9 +3420,9 @@
         <f t="shared" si="3"/>
         <v>17.84090909090909</v>
       </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
       <c r="T35" s="4">
         <v>5.649129500782073</v>
       </c>
@@ -3430,65 +3432,484 @@
       </c>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+      <c r="A36" s="7">
+        <v>156.683804627249</v>
+      </c>
+      <c r="B36" s="6">
+        <v>160</v>
+      </c>
+      <c r="C36" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G36" s="6">
+        <v>10</v>
+      </c>
+      <c r="H36" s="11">
+        <f>A36-I36</f>
+        <v>6.6838046272490033</v>
+      </c>
+      <c r="I36" s="1">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2">
+        <f>(B36-100)/I36</f>
+        <v>0.4</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="Y36" s="4"/>
+      <c r="N36" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R36" s="7"/>
+      <c r="T36" s="3">
+        <v>1.9797846456955677</v>
+      </c>
+      <c r="Y36" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
+      <c r="A37" s="7">
+        <v>171.52956298200499</v>
+      </c>
+      <c r="B37" s="6">
+        <v>160</v>
+      </c>
+      <c r="C37" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G37" s="6">
+        <v>10</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" ref="H37:H45" si="6">A37-I37</f>
+        <v>21.52956298200499</v>
+      </c>
+      <c r="I37" s="1">
+        <v>150</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" ref="J37:J45" si="7">(B37-100)/I37</f>
+        <v>0.4</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="T37" s="3"/>
+      <c r="N37" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R37" s="7"/>
+      <c r="T37" s="3">
+        <v>3.1312771318118524</v>
+      </c>
+      <c r="Y37" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+      <c r="A38" s="7">
+        <v>186.375321336761</v>
+      </c>
+      <c r="B38" s="6">
+        <v>160</v>
+      </c>
+      <c r="C38" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G38" s="6">
+        <v>10</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="6"/>
+        <v>36.375321336761004</v>
+      </c>
+      <c r="I38" s="1">
+        <v>150</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="T38" s="3"/>
+      <c r="N38" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R38" s="7"/>
+      <c r="T38" s="3">
+        <v>3.5126883965540934</v>
+      </c>
+      <c r="Y38" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
+      <c r="A39" s="7">
+        <v>201.799485861183</v>
+      </c>
+      <c r="B39" s="6">
+        <v>160</v>
+      </c>
+      <c r="C39" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>5</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G39" s="6">
+        <v>10</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="6"/>
+        <v>51.799485861183001</v>
+      </c>
+      <c r="I39" s="1">
+        <v>150</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="N39" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R39" s="7"/>
+      <c r="T39" s="3">
+        <v>6.0391845177495691</v>
+      </c>
+      <c r="Y39" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
+      <c r="A40" s="7">
+        <v>216.64524421593799</v>
+      </c>
+      <c r="B40" s="6">
+        <v>160</v>
+      </c>
+      <c r="C40" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G40" s="6">
+        <v>10</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="6"/>
+        <v>66.645244215937993</v>
+      </c>
+      <c r="I40" s="1">
+        <v>150</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="T40" s="3"/>
+      <c r="N40" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R40" s="7"/>
+      <c r="T40" s="3">
+        <v>6.8423069275299762</v>
+      </c>
+      <c r="Y40" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
+      <c r="A41" s="7">
+        <v>231.29820051413901</v>
+      </c>
+      <c r="B41" s="6">
+        <v>160</v>
+      </c>
+      <c r="C41" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
+        <v>5</v>
+      </c>
+      <c r="F41" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G41" s="6">
+        <v>10</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="6"/>
+        <v>81.298200514139012</v>
+      </c>
+      <c r="I41" s="1">
+        <v>150</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="T41" s="3"/>
+      <c r="N41" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R41" s="7"/>
+      <c r="T41" s="3">
+        <v>6.6920425785435373</v>
+      </c>
+      <c r="Y41" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
+      <c r="A42" s="7">
+        <v>246.52956298200499</v>
+      </c>
+      <c r="B42" s="6">
+        <v>160</v>
+      </c>
+      <c r="C42" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G42" s="6">
+        <v>10</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="6"/>
+        <v>96.52956298200499</v>
+      </c>
+      <c r="I42" s="1">
+        <v>150</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="N42" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R42" s="7"/>
+      <c r="T42" s="3">
+        <v>8.2284814066210075</v>
+      </c>
+      <c r="Y42" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
+      <c r="A43" s="7">
+        <v>261.568123393316</v>
+      </c>
+      <c r="B43" s="6">
+        <v>160</v>
+      </c>
+      <c r="C43" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>5</v>
+      </c>
+      <c r="F43" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G43" s="6">
+        <v>10</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="6"/>
+        <v>111.568123393316</v>
+      </c>
+      <c r="I43" s="1">
+        <v>150</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-      <c r="T43" s="3"/>
+      <c r="N43" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R43" s="7"/>
+      <c r="T43" s="3">
+        <v>6.9230009568476643</v>
+      </c>
+      <c r="Y43" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
+      <c r="A44" s="7">
+        <v>276.41388174807201</v>
+      </c>
+      <c r="B44" s="6">
+        <v>160</v>
+      </c>
+      <c r="C44" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G44" s="6">
+        <v>10</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="6"/>
+        <v>126.41388174807201</v>
+      </c>
+      <c r="I44" s="1">
+        <v>150</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="T44" s="3"/>
+      <c r="N44" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R44" s="7"/>
+      <c r="T44" s="3">
+        <v>9.0829331376204525</v>
+      </c>
+      <c r="Y44" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
+      <c r="A45" s="7">
+        <v>291.64524421593802</v>
+      </c>
+      <c r="B45" s="6">
+        <v>160</v>
+      </c>
+      <c r="C45" s="6">
+        <v>7.69</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>5</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="G45" s="6">
+        <v>10</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="6"/>
+        <v>141.64524421593802</v>
+      </c>
+      <c r="I45" s="1">
+        <v>150</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-      <c r="T45" s="3"/>
+      <c r="N45" s="6">
+        <f t="shared" si="3"/>
+        <v>17.84090909090909</v>
+      </c>
+      <c r="R45" s="7"/>
+      <c r="T45" s="3">
+        <v>5.375485553484177</v>
+      </c>
+      <c r="Y45" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
